--- a/Test File to Load.xlsx
+++ b/Test File to Load.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\VBA\Atena\Atena-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D390D-B60C-4976-9AC2-10F9DAB8D70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79D02A-1D7F-4051-B778-F3F958D0E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC3FC16-9400-4692-8123-DA8F787C2AC2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC3FC16-9400-4692-8123-DA8F787C2AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
-  <si>
-    <t>adam.jabłoński@example.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
   <si>
     <t>kamil.zielinski@example.com</t>
   </si>
@@ -62,9 +59,6 @@
     <t>marek.król@example.com</t>
   </si>
   <si>
-    <t>klaudia.marciniak@example.com</t>
-  </si>
-  <si>
     <t>michał.sobczyk@example.com</t>
   </si>
   <si>
@@ -473,32 +467,59 @@
     <t>test_pass</t>
   </si>
   <si>
-    <t xml:space="preserve">            If reportWb.Sheets(1).Range("P" &amp; i).value = "Zaliczone" Then</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 test.pass = PASS_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ElseIf reportWb.Sheets(1).Range("P" &amp; i).value = vbNullString Then</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                test.pass = NO_REQUIRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                test.pass = NO_PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            End If</t>
+    <t>Zaliczone</t>
+  </si>
+  <si>
+    <t>Niezaliczone</t>
+  </si>
+  <si>
+    <t>Nierozpoczęte</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>Kolumna2</t>
+  </si>
+  <si>
+    <t>Kolumna3</t>
+  </si>
+  <si>
+    <t>Kolumna4</t>
+  </si>
+  <si>
+    <t>Kolumna5</t>
+  </si>
+  <si>
+    <t>Kolumna6</t>
+  </si>
+  <si>
+    <t>Kolumna7</t>
+  </si>
+  <si>
+    <t>Kolumna8</t>
+  </si>
+  <si>
+    <t>Kolumna9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyniki testów </t>
+  </si>
+  <si>
+    <t>adam111.jabłoński@example.com</t>
+  </si>
+  <si>
+    <t>klaudia111.marciniak@example.com</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,16 +532,51 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +589,26 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -572,13 +646,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAEAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAEAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAEAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAEAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -589,16 +741,196 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hiperłącze" xfId="3" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny_Arkusz1" xfId="2" xr:uid="{4D8BC67C-1CFB-4E78-9E60-3C8F9345896E}"/>
     <cellStyle name="Normalny_Wyniki obiektów wied (...)" xfId="1" xr:uid="{79D64D70-1BCA-47C8-9E6D-2C7AB3248D21}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3A3838"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFAEAAAA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAEAAAA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAEAAAA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAEAAAA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3A3838"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFAEAAAA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAEAAAA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAEAAAA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAEAAAA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3A3838"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFAEAAAA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFAEAAAA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFAEAAAA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFAEAAAA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -609,6 +941,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA565AD5-84BB-4868-BAC7-D95A08EE452B}" name="Tabela1" displayName="Tabela1" ref="D6:P147" totalsRowShown="0">
+  <autoFilter ref="D6:P147" xr:uid="{BA565AD5-84BB-4868-BAC7-D95A08EE452B}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{77C8ECE8-86EA-493A-8E4D-6EB05B38A4E9}" name="user_mail" dataDxfId="3" dataCellStyle="Normalny_Wyniki obiektów wied (...)"/>
+    <tableColumn id="2" xr3:uid="{FCC7012D-22A4-44AC-82D0-D07C765F7DA0}" name="Kolumna1"/>
+    <tableColumn id="3" xr3:uid="{1C132AF9-9762-4C6D-8832-B0BEC69FDF93}" name="Kolumna2"/>
+    <tableColumn id="4" xr3:uid="{1CB3440C-E51D-49B8-A400-9E278EDDD0C3}" name="Kolumna3"/>
+    <tableColumn id="5" xr3:uid="{25118D59-76C4-4C9B-BCF6-6B0895A2100C}" name="test_score" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{1673877D-7A93-44A1-921D-BC6502FD2FA1}" name="test_progress" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{9F572625-2D87-45AE-9064-6A0954E78E91}" name="Kolumna4"/>
+    <tableColumn id="8" xr3:uid="{CA34A108-94A5-42E6-8E3B-FF3F697F8681}" name="Kolumna5"/>
+    <tableColumn id="9" xr3:uid="{E4D86A26-F45A-4160-8755-4D12E9AA3CF3}" name="Kolumna6"/>
+    <tableColumn id="10" xr3:uid="{78569F72-898C-46CD-9DA2-2EBE0AF34BC2}" name="Kolumna7"/>
+    <tableColumn id="11" xr3:uid="{A91EB4F0-567D-4E45-ADA1-8D863F67AAD7}" name="Kolumna8"/>
+    <tableColumn id="12" xr3:uid="{96CBBB06-75EA-40B2-B1C8-8AD0835B6360}" name="Kolumna9"/>
+    <tableColumn id="13" xr3:uid="{83D85197-7A1F-4FAC-BF03-EAAB05B67DE8}" name="test_pass" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,1250 +1283,2595 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85D6CAC-43E3-4A61-8EBC-DAEA884D8CED}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="D6:R713"/>
+  <dimension ref="A1:P713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" customWidth="1"/>
     <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6">
+        <v>95</v>
+      </c>
+      <c r="J7" s="5">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>95</v>
+      </c>
+      <c r="I8" s="6">
+        <v>95</v>
+      </c>
+      <c r="J8" s="6">
+        <v>100</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6">
+        <v>95</v>
+      </c>
+      <c r="J9" s="5">
+        <v>100</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>95</v>
+      </c>
+      <c r="I10" s="6">
+        <v>95</v>
+      </c>
+      <c r="J10" s="6">
+        <v>100</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6">
+        <v>95</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>90</v>
+      </c>
+      <c r="I12" s="6">
+        <v>95</v>
+      </c>
+      <c r="J12" s="6">
+        <v>100</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>90</v>
+      </c>
+      <c r="I13" s="6">
+        <v>95</v>
+      </c>
+      <c r="J13" s="5">
+        <v>100</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>95</v>
+      </c>
+      <c r="I14" s="6">
+        <v>95</v>
+      </c>
+      <c r="J14" s="6">
+        <v>100</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="5">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
+        <v>95</v>
+      </c>
+      <c r="J15" s="5">
+        <v>100</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6">
+        <v>95</v>
+      </c>
+      <c r="J16" s="6">
+        <v>100</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5">
+        <v>100</v>
+      </c>
+      <c r="I17" s="6">
+        <v>95</v>
+      </c>
+      <c r="J17" s="5">
+        <v>100</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" t="b">
-        <f>IF(P7,"Zaliczone")</f>
+      <c r="I18" s="6">
+        <v>95</v>
+      </c>
+      <c r="J18" s="6">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
+      <c r="P18" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="R8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="R9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="R10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="R11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="R12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="R13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+      <c r="H19" s="5">
+        <v>100</v>
+      </c>
+      <c r="I19" s="6">
+        <v>95</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+      <c r="H20" s="6">
+        <v>95</v>
+      </c>
+      <c r="I20" s="6">
+        <v>95</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+      <c r="H21" s="5">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6">
+        <v>95</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+      <c r="H22" s="6">
+        <v>95</v>
+      </c>
+      <c r="I22" s="6">
+        <v>95</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+      <c r="H23" s="5">
+        <v>100</v>
+      </c>
+      <c r="I23" s="6">
+        <v>95</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+      <c r="H24" s="6">
+        <v>90</v>
+      </c>
+      <c r="I24" s="6">
+        <v>95</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+      <c r="H25" s="5">
+        <v>90</v>
+      </c>
+      <c r="I25" s="6">
+        <v>95</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
+      <c r="H26" s="6">
+        <v>95</v>
+      </c>
+      <c r="I26" s="6">
+        <v>95</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
+      <c r="H27" s="5">
+        <v>100</v>
+      </c>
+      <c r="I27" s="6">
+        <v>95</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+      <c r="H28" s="6">
+        <v>100</v>
+      </c>
+      <c r="I28" s="6">
+        <v>95</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
+      <c r="H29" s="5">
+        <v>100</v>
+      </c>
+      <c r="I29" s="6">
+        <v>95</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>95</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+      <c r="H31" s="5">
+        <v>100</v>
+      </c>
+      <c r="I31" s="6">
+        <v>95</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+      <c r="H32" s="6">
+        <v>95</v>
+      </c>
+      <c r="I32" s="6">
+        <v>95</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+      <c r="H33" s="5">
+        <v>100</v>
+      </c>
+      <c r="I33" s="6">
+        <v>95</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+      <c r="H34" s="6">
+        <v>95</v>
+      </c>
+      <c r="I34" s="6">
+        <v>95</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+      <c r="H35" s="5">
+        <v>100</v>
+      </c>
+      <c r="I35" s="6">
+        <v>95</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
+      <c r="H36" s="6">
+        <v>90</v>
+      </c>
+      <c r="I36" s="6">
+        <v>95</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
+      <c r="H37" s="5">
+        <v>90</v>
+      </c>
+      <c r="I37" s="6">
+        <v>95</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
+      <c r="H38" s="6">
+        <v>95</v>
+      </c>
+      <c r="I38" s="6">
+        <v>95</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
+      <c r="H39" s="5">
+        <v>100</v>
+      </c>
+      <c r="I39" s="6">
+        <v>95</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
+      <c r="H40" s="6">
+        <v>100</v>
+      </c>
+      <c r="I40" s="6">
+        <v>95</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
+      <c r="H41" s="5">
+        <v>100</v>
+      </c>
+      <c r="I41" s="6">
+        <v>95</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>95</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
+      <c r="H43" s="5">
+        <v>100</v>
+      </c>
+      <c r="I43" s="6">
+        <v>95</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
+      <c r="H44" s="6">
+        <v>95</v>
+      </c>
+      <c r="I44" s="6">
+        <v>95</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
+      <c r="H45" s="5">
+        <v>100</v>
+      </c>
+      <c r="I45" s="6">
+        <v>95</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
+      <c r="H46" s="6">
+        <v>95</v>
+      </c>
+      <c r="I46" s="6">
+        <v>95</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
+      <c r="H47" s="5">
+        <v>100</v>
+      </c>
+      <c r="I47" s="6">
+        <v>95</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+      <c r="H48" s="6">
+        <v>90</v>
+      </c>
+      <c r="I48" s="6">
+        <v>95</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="P47" s="4"/>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
+      <c r="H49" s="5">
+        <v>90</v>
+      </c>
+      <c r="I49" s="6">
+        <v>95</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="P48" s="4"/>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
+      <c r="H50" s="6">
+        <v>95</v>
+      </c>
+      <c r="I50" s="6">
+        <v>95</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="P49" s="4"/>
-    </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
+      <c r="H51" s="5">
+        <v>100</v>
+      </c>
+      <c r="I51" s="6">
+        <v>95</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="P50" s="4"/>
-    </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="1" t="s">
+      <c r="H52" s="6">
+        <v>100</v>
+      </c>
+      <c r="I52" s="6">
+        <v>95</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="P51" s="4"/>
-    </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
+      <c r="H53" s="5">
+        <v>100</v>
+      </c>
+      <c r="I53" s="6">
+        <v>95</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="P52" s="4"/>
-    </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>95</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="P53" s="4"/>
-    </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
+      <c r="H55" s="5">
+        <v>100</v>
+      </c>
+      <c r="I55" s="6">
+        <v>95</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="P54" s="4"/>
-    </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
+      <c r="H56" s="6">
+        <v>95</v>
+      </c>
+      <c r="I56" s="6">
+        <v>95</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="P55" s="4"/>
-    </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D56" s="1" t="s">
+      <c r="H57" s="5">
+        <v>100</v>
+      </c>
+      <c r="I57" s="6">
+        <v>95</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="P56" s="4"/>
-    </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
+      <c r="H58" s="6">
+        <v>95</v>
+      </c>
+      <c r="I58" s="6">
+        <v>95</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="P57" s="4"/>
-    </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
+      <c r="H59" s="5">
+        <v>100</v>
+      </c>
+      <c r="I59" s="6">
+        <v>95</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="P58" s="4"/>
-    </row>
-    <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
+      <c r="H60" s="6">
+        <v>90</v>
+      </c>
+      <c r="I60" s="6">
+        <v>95</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="P59" s="4"/>
-    </row>
-    <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="1" t="s">
+      <c r="H61" s="5">
+        <v>90</v>
+      </c>
+      <c r="I61" s="6">
+        <v>95</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="P60" s="4"/>
-    </row>
-    <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
+      <c r="H62" s="6">
+        <v>95</v>
+      </c>
+      <c r="I62" s="6">
+        <v>95</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="P61" s="4"/>
-    </row>
-    <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
+      <c r="H63" s="5">
+        <v>100</v>
+      </c>
+      <c r="I63" s="6">
+        <v>95</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="P62" s="4"/>
-    </row>
-    <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="1" t="s">
+      <c r="H64" s="6">
+        <v>100</v>
+      </c>
+      <c r="I64" s="6">
+        <v>95</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="P63" s="4"/>
-    </row>
-    <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="1" t="s">
+      <c r="H65" s="5">
+        <v>100</v>
+      </c>
+      <c r="I65" s="6">
+        <v>95</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="P64" s="4"/>
-    </row>
-    <row r="65" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>95</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="P65" s="4"/>
-    </row>
-    <row r="66" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D66" s="1" t="s">
+      <c r="H67" s="5">
+        <v>100</v>
+      </c>
+      <c r="I67" s="6">
+        <v>95</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="P66" s="4"/>
-    </row>
-    <row r="67" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D67" s="1" t="s">
+      <c r="H68" s="6">
+        <v>95</v>
+      </c>
+      <c r="I68" s="6">
+        <v>95</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="P67" s="4"/>
-    </row>
-    <row r="68" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
+      <c r="H69" s="5">
+        <v>100</v>
+      </c>
+      <c r="I69" s="6">
+        <v>95</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="P68" s="4"/>
-    </row>
-    <row r="69" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D69" s="1" t="s">
+      <c r="H70" s="6">
+        <v>95</v>
+      </c>
+      <c r="I70" s="6">
+        <v>95</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="P69" s="4"/>
-    </row>
-    <row r="70" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D70" s="1" t="s">
+      <c r="H71" s="5">
+        <v>100</v>
+      </c>
+      <c r="I71" s="6">
+        <v>95</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="P70" s="4"/>
-    </row>
-    <row r="71" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D71" s="1" t="s">
+      <c r="H72" s="6">
+        <v>90</v>
+      </c>
+      <c r="I72" s="6">
+        <v>95</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="P71" s="4"/>
-    </row>
-    <row r="72" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D72" s="1" t="s">
+      <c r="H73" s="5">
+        <v>90</v>
+      </c>
+      <c r="I73" s="6">
+        <v>95</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="P72" s="4"/>
-    </row>
-    <row r="73" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D73" s="1" t="s">
+      <c r="H74" s="6">
+        <v>95</v>
+      </c>
+      <c r="I74" s="6">
+        <v>95</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="P73" s="4"/>
-    </row>
-    <row r="74" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D74" s="1" t="s">
+      <c r="H75" s="5">
+        <v>100</v>
+      </c>
+      <c r="I75" s="6">
+        <v>95</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="P74" s="4"/>
-    </row>
-    <row r="75" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D75" s="1" t="s">
+      <c r="H76" s="6">
+        <v>100</v>
+      </c>
+      <c r="I76" s="6">
+        <v>95</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="P75" s="4"/>
-    </row>
-    <row r="76" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D76" s="1" t="s">
+      <c r="H77" s="5">
+        <v>100</v>
+      </c>
+      <c r="I77" s="6">
+        <v>95</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="P76" s="4"/>
-    </row>
-    <row r="77" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D77" s="1" t="s">
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>95</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="P77" s="4"/>
-    </row>
-    <row r="78" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D78" s="1" t="s">
+      <c r="H79" s="5">
+        <v>100</v>
+      </c>
+      <c r="I79" s="6">
+        <v>95</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="P78" s="4"/>
-    </row>
-    <row r="79" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D79" s="1" t="s">
+      <c r="H80" s="6">
+        <v>95</v>
+      </c>
+      <c r="I80" s="6">
+        <v>95</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="P79" s="4"/>
-    </row>
-    <row r="80" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D80" s="1" t="s">
+      <c r="H81" s="5">
+        <v>100</v>
+      </c>
+      <c r="I81" s="6">
+        <v>95</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="P80" s="4"/>
-    </row>
-    <row r="81" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D81" s="1" t="s">
+      <c r="H82" s="6">
+        <v>95</v>
+      </c>
+      <c r="I82" s="6">
+        <v>95</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="P81" s="4"/>
-    </row>
-    <row r="82" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D82" s="1" t="s">
+      <c r="H83" s="5">
+        <v>100</v>
+      </c>
+      <c r="I83" s="6">
+        <v>95</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="P82" s="4"/>
-    </row>
-    <row r="83" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D83" s="1" t="s">
+      <c r="H84" s="6">
+        <v>90</v>
+      </c>
+      <c r="I84" s="6">
+        <v>95</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="P83" s="4"/>
-    </row>
-    <row r="84" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D84" s="1" t="s">
+      <c r="H85" s="5">
+        <v>90</v>
+      </c>
+      <c r="I85" s="6">
+        <v>95</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="P84" s="4"/>
-    </row>
-    <row r="85" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D85" s="1" t="s">
+      <c r="H86" s="6">
+        <v>95</v>
+      </c>
+      <c r="I86" s="6">
+        <v>95</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>81</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="P85" s="4"/>
-    </row>
-    <row r="86" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D86" s="1" t="s">
+      <c r="H87" s="5">
+        <v>100</v>
+      </c>
+      <c r="I87" s="6">
+        <v>95</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="P86" s="4"/>
-    </row>
-    <row r="87" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D87" s="1" t="s">
+      <c r="H88" s="6">
+        <v>100</v>
+      </c>
+      <c r="I88" s="6">
+        <v>95</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>83</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="P87" s="4"/>
-    </row>
-    <row r="88" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D88" s="1" t="s">
+      <c r="H89" s="5">
+        <v>100</v>
+      </c>
+      <c r="I89" s="6">
+        <v>95</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>84</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="P88" s="4"/>
-    </row>
-    <row r="89" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D89" s="1" t="s">
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>95</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="P89" s="4"/>
-    </row>
-    <row r="90" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D90" s="1" t="s">
+      <c r="H91" s="5">
+        <v>100</v>
+      </c>
+      <c r="I91" s="6">
+        <v>95</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="P90" s="4"/>
-    </row>
-    <row r="91" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D91" s="1" t="s">
+      <c r="H92" s="6">
+        <v>95</v>
+      </c>
+      <c r="I92" s="6">
+        <v>95</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="P91" s="4"/>
-    </row>
-    <row r="92" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
+      <c r="H93" s="5">
+        <v>100</v>
+      </c>
+      <c r="I93" s="6">
+        <v>95</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="P92" s="4"/>
-    </row>
-    <row r="93" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D93" s="1" t="s">
+      <c r="H94" s="6">
+        <v>95</v>
+      </c>
+      <c r="I94" s="6">
+        <v>95</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="P93" s="4"/>
-    </row>
-    <row r="94" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D94" s="1" t="s">
+      <c r="H95" s="5">
+        <v>100</v>
+      </c>
+      <c r="I95" s="6">
+        <v>95</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="P94" s="4"/>
-    </row>
-    <row r="95" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D95" s="1" t="s">
+      <c r="H96" s="6">
+        <v>90</v>
+      </c>
+      <c r="I96" s="6">
+        <v>95</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="P95" s="4"/>
-    </row>
-    <row r="96" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D96" s="1" t="s">
+      <c r="H97" s="5">
+        <v>90</v>
+      </c>
+      <c r="I97" s="6">
+        <v>95</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="P96" s="4"/>
-    </row>
-    <row r="97" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
+      <c r="H98" s="6">
+        <v>95</v>
+      </c>
+      <c r="I98" s="6">
+        <v>95</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>93</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="P97" s="4"/>
-    </row>
-    <row r="98" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D98" s="1" t="s">
+      <c r="H99" s="5">
+        <v>100</v>
+      </c>
+      <c r="I99" s="6">
+        <v>95</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="P98" s="4"/>
-    </row>
-    <row r="99" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D99" s="1" t="s">
+      <c r="H100" s="6">
+        <v>100</v>
+      </c>
+      <c r="I100" s="6">
+        <v>95</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>95</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="P99" s="4"/>
-    </row>
-    <row r="100" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D100" s="1" t="s">
+      <c r="H101" s="5">
+        <v>100</v>
+      </c>
+      <c r="I101" s="6">
+        <v>95</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>96</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="P100" s="4"/>
-    </row>
-    <row r="101" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D101" s="1" t="s">
+      <c r="H102" s="6">
+        <v>0</v>
+      </c>
+      <c r="I102" s="6">
+        <v>95</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="P101" s="4"/>
-    </row>
-    <row r="102" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D102" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="P102" s="4"/>
-    </row>
-    <row r="103" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D103" s="1" t="s">
+      <c r="H103" s="5">
+        <v>100</v>
+      </c>
+      <c r="I103" s="6">
+        <v>95</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>98</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H104" s="6">
+        <v>95</v>
+      </c>
+      <c r="I104" s="6">
+        <v>95</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="P103" s="4"/>
-    </row>
-    <row r="104" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D104" s="1" t="s">
+      <c r="H105" s="5">
+        <v>100</v>
+      </c>
+      <c r="I105" s="6">
+        <v>95</v>
+      </c>
+      <c r="P105" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="P104" s="4"/>
-    </row>
-    <row r="105" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D105" s="1" t="s">
+      <c r="H106" s="6">
+        <v>95</v>
+      </c>
+      <c r="I106" s="6">
+        <v>95</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>101</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="P105" s="4"/>
-    </row>
-    <row r="106" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D106" s="1" t="s">
+      <c r="H107" s="5">
+        <v>100</v>
+      </c>
+      <c r="I107" s="6">
+        <v>95</v>
+      </c>
+      <c r="P107" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>102</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="P106" s="4"/>
-    </row>
-    <row r="107" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D107" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="P107" s="4"/>
-    </row>
-    <row r="108" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D108" s="1" t="s">
+      <c r="H108" s="6">
+        <v>90</v>
+      </c>
+      <c r="I108" s="6">
+        <v>95</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>103</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H109" s="5">
+        <v>90</v>
+      </c>
+      <c r="I109" s="6">
+        <v>95</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="P108" s="4"/>
-    </row>
-    <row r="109" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D109" s="1" t="s">
+      <c r="H110" s="6">
+        <v>95</v>
+      </c>
+      <c r="I110" s="6">
+        <v>95</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>105</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="P109" s="4"/>
-    </row>
-    <row r="110" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D110" s="1" t="s">
+      <c r="H111" s="5">
+        <v>100</v>
+      </c>
+      <c r="I111" s="6">
+        <v>95</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>106</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="P110" s="4"/>
-    </row>
-    <row r="111" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D111" s="1" t="s">
+      <c r="H112" s="6">
+        <v>100</v>
+      </c>
+      <c r="I112" s="6">
+        <v>95</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>107</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="P111" s="4"/>
-    </row>
-    <row r="112" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D112" s="1" t="s">
+      <c r="H113" s="5">
+        <v>100</v>
+      </c>
+      <c r="I113" s="6">
+        <v>95</v>
+      </c>
+      <c r="P113" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>108</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="P112" s="4"/>
-    </row>
-    <row r="113" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D113" s="1" t="s">
+      <c r="H114" s="6">
+        <v>0</v>
+      </c>
+      <c r="I114" s="6">
+        <v>95</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>109</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="P113" s="4"/>
-    </row>
-    <row r="114" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D114" s="1" t="s">
+      <c r="H115" s="5">
+        <v>100</v>
+      </c>
+      <c r="I115" s="6">
+        <v>95</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>110</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="P114" s="4"/>
-    </row>
-    <row r="115" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D115" s="1" t="s">
+      <c r="H116" s="6">
+        <v>95</v>
+      </c>
+      <c r="I116" s="6">
+        <v>95</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="P115" s="4"/>
-    </row>
-    <row r="116" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D116" s="1" t="s">
+      <c r="H117" s="5">
+        <v>100</v>
+      </c>
+      <c r="I117" s="6">
+        <v>95</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>112</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="P116" s="4"/>
-    </row>
-    <row r="117" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D117" s="1" t="s">
+      <c r="H118" s="6">
+        <v>95</v>
+      </c>
+      <c r="I118" s="6">
+        <v>95</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="P117" s="4"/>
-    </row>
-    <row r="118" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D118" s="1" t="s">
+      <c r="H119" s="5">
+        <v>100</v>
+      </c>
+      <c r="I119" s="6">
+        <v>95</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>114</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="P118" s="4"/>
-    </row>
-    <row r="119" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D119" s="1" t="s">
+      <c r="H120" s="6">
+        <v>90</v>
+      </c>
+      <c r="I120" s="6">
+        <v>95</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>115</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="P119" s="4"/>
-    </row>
-    <row r="120" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D120" s="1" t="s">
+      <c r="H121" s="5">
+        <v>90</v>
+      </c>
+      <c r="I121" s="6">
+        <v>95</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>116</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="P120" s="4"/>
-    </row>
-    <row r="121" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D121" s="1" t="s">
+      <c r="H122" s="6">
+        <v>95</v>
+      </c>
+      <c r="I122" s="6">
+        <v>95</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>117</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="P121" s="4"/>
-    </row>
-    <row r="122" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D122" s="1" t="s">
+      <c r="H123" s="5">
+        <v>100</v>
+      </c>
+      <c r="I123" s="6">
+        <v>95</v>
+      </c>
+      <c r="P123" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>118</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="P122" s="4"/>
-    </row>
-    <row r="123" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D123" s="1" t="s">
+      <c r="H124" s="6">
+        <v>100</v>
+      </c>
+      <c r="I124" s="6">
+        <v>95</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>119</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="P123" s="4"/>
-    </row>
-    <row r="124" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D124" s="1" t="s">
+      <c r="H125" s="5">
+        <v>100</v>
+      </c>
+      <c r="I125" s="6">
+        <v>95</v>
+      </c>
+      <c r="P125" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>120</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="P124" s="4"/>
-    </row>
-    <row r="125" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D125" s="1" t="s">
+      <c r="H126" s="6">
+        <v>0</v>
+      </c>
+      <c r="I126" s="6">
+        <v>95</v>
+      </c>
+      <c r="P126" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>121</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="P125" s="4"/>
-    </row>
-    <row r="126" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D126" s="1" t="s">
+      <c r="H127" s="5">
+        <v>100</v>
+      </c>
+      <c r="I127" s="6">
+        <v>95</v>
+      </c>
+      <c r="P127" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>122</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="P126" s="4"/>
-    </row>
-    <row r="127" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D127" s="1" t="s">
+      <c r="H128" s="6">
+        <v>95</v>
+      </c>
+      <c r="I128" s="6">
+        <v>95</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>123</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="P127" s="4"/>
-    </row>
-    <row r="128" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D128" s="1" t="s">
+      <c r="H129" s="5">
+        <v>100</v>
+      </c>
+      <c r="I129" s="6">
+        <v>95</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>124</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="P128" s="4"/>
-    </row>
-    <row r="129" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D129" s="1" t="s">
+      <c r="H130" s="6">
+        <v>95</v>
+      </c>
+      <c r="I130" s="6">
+        <v>95</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>125</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="P129" s="4"/>
-    </row>
-    <row r="130" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D130" s="1" t="s">
+      <c r="H131" s="5">
+        <v>100</v>
+      </c>
+      <c r="I131" s="6">
+        <v>95</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>126</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="P130" s="4"/>
-    </row>
-    <row r="131" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D131" s="1" t="s">
+      <c r="H132" s="6">
+        <v>90</v>
+      </c>
+      <c r="I132" s="6">
+        <v>95</v>
+      </c>
+      <c r="P132" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>127</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="P131" s="4"/>
-    </row>
-    <row r="132" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D132" s="1" t="s">
+      <c r="H133" s="5">
+        <v>90</v>
+      </c>
+      <c r="I133" s="6">
+        <v>95</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>128</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="P132" s="4"/>
-    </row>
-    <row r="133" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D133" s="1" t="s">
+      <c r="H134" s="6">
+        <v>95</v>
+      </c>
+      <c r="I134" s="6">
+        <v>95</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>129</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="P133" s="4"/>
-    </row>
-    <row r="134" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D134" s="1" t="s">
+      <c r="H135" s="5">
+        <v>100</v>
+      </c>
+      <c r="I135" s="6">
+        <v>95</v>
+      </c>
+      <c r="P135" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>130</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="P134" s="4"/>
-    </row>
-    <row r="135" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D135" s="1" t="s">
+      <c r="H136" s="6">
+        <v>100</v>
+      </c>
+      <c r="I136" s="6">
+        <v>95</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>131</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="P135" s="4"/>
-    </row>
-    <row r="136" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D136" s="1" t="s">
+      <c r="H137" s="5">
+        <v>100</v>
+      </c>
+      <c r="I137" s="6">
+        <v>95</v>
+      </c>
+      <c r="P137" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>132</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="P136" s="4"/>
-    </row>
-    <row r="137" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D137" s="1" t="s">
+      <c r="H138" s="6">
+        <v>0</v>
+      </c>
+      <c r="I138" s="6">
+        <v>95</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>133</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="P137" s="4"/>
-    </row>
-    <row r="138" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
+      <c r="H139" s="5">
+        <v>100</v>
+      </c>
+      <c r="I139" s="6">
+        <v>95</v>
+      </c>
+      <c r="P139" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>134</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="P138" s="4"/>
-    </row>
-    <row r="139" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D139" s="1" t="s">
+      <c r="H140" s="6">
+        <v>95</v>
+      </c>
+      <c r="I140" s="6">
+        <v>95</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>135</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="P139" s="4"/>
-    </row>
-    <row r="140" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D140" s="1" t="s">
+      <c r="H141" s="5">
+        <v>100</v>
+      </c>
+      <c r="I141" s="6">
+        <v>95</v>
+      </c>
+      <c r="P141" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>136</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="P140" s="4"/>
-    </row>
-    <row r="141" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D141" s="1" t="s">
+      <c r="H142" s="6">
+        <v>95</v>
+      </c>
+      <c r="I142" s="6">
+        <v>95</v>
+      </c>
+      <c r="P142" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>137</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="P141" s="4"/>
-    </row>
-    <row r="142" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
+      <c r="H143" s="5">
+        <v>100</v>
+      </c>
+      <c r="I143" s="6">
+        <v>95</v>
+      </c>
+      <c r="P143" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>138</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="P142" s="4"/>
-    </row>
-    <row r="143" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D143" s="1" t="s">
+      <c r="H144" s="6">
+        <v>90</v>
+      </c>
+      <c r="I144" s="6">
+        <v>95</v>
+      </c>
+      <c r="P144" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>139</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="P143" s="4"/>
-    </row>
-    <row r="144" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D144" s="1" t="s">
+      <c r="H145" s="5">
+        <v>90</v>
+      </c>
+      <c r="I145" s="6">
+        <v>95</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>140</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="P144" s="4"/>
-    </row>
-    <row r="145" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D145" s="1" t="s">
+      <c r="H146" s="6">
+        <v>95</v>
+      </c>
+      <c r="I146" s="6">
+        <v>95</v>
+      </c>
+      <c r="P146" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>141</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="P145" s="4"/>
-    </row>
-    <row r="146" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D146" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="P146" s="4"/>
-    </row>
-    <row r="147" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D147" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="P147" s="4"/>
-    </row>
-    <row r="148" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="H147" s="5">
+        <v>100</v>
+      </c>
+      <c r="I147" s="6">
+        <v>95</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="P149" s="4"/>
     </row>
-    <row r="150" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="P150" s="4"/>
     </row>
-    <row r="151" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="P151" s="4"/>
     </row>
-    <row r="152" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="P153" s="4"/>
     </row>
-    <row r="154" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="P154" s="4"/>
     </row>
-    <row r="155" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="P155" s="4"/>
     </row>
-    <row r="156" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="P156" s="4"/>
     </row>
-    <row r="157" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="P157" s="4"/>
     </row>
-    <row r="158" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="P159" s="4"/>
     </row>
-    <row r="160" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="P160" s="4"/>
@@ -4943,6 +6642,16 @@
       <c r="P713" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{87AF023E-4559-4ABC-9195-DA481EBF3A8C}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{DDAD2B9B-5316-45B3-BAB7-E6BCDE12F466}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>